--- a/Code/Results/Cases/Case_8_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011599423738226</v>
+        <v>1.007631611486616</v>
       </c>
       <c r="D2">
-        <v>1.032029574713405</v>
+        <v>1.028734476961384</v>
       </c>
       <c r="E2">
-        <v>1.015683472604999</v>
+        <v>1.012562581187193</v>
       </c>
       <c r="F2">
-        <v>1.035224090073513</v>
+        <v>1.03256078925268</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052774253185848</v>
+        <v>1.051101019668718</v>
       </c>
       <c r="J2">
-        <v>1.033438647862003</v>
+        <v>1.029586433945942</v>
       </c>
       <c r="K2">
-        <v>1.043060017145972</v>
+        <v>1.039807499346258</v>
       </c>
       <c r="L2">
-        <v>1.026928551626287</v>
+        <v>1.023849630289274</v>
       </c>
       <c r="M2">
-        <v>1.046213575675351</v>
+        <v>1.043584399026755</v>
       </c>
       <c r="N2">
-        <v>1.034906249279036</v>
+        <v>1.026186084267517</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04514732104122</v>
+        <v>1.043066514347651</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04151744424145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039226392363131</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022245465839089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017278380892767</v>
+        <v>1.012286420632963</v>
       </c>
       <c r="D3">
-        <v>1.035868786007716</v>
+        <v>1.031771676679081</v>
       </c>
       <c r="E3">
-        <v>1.02040180870641</v>
+        <v>1.016347116531613</v>
       </c>
       <c r="F3">
-        <v>1.039010865681791</v>
+        <v>1.035692898010314</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054234596964674</v>
+        <v>1.052151906537376</v>
       </c>
       <c r="J3">
-        <v>1.037308851390034</v>
+        <v>1.032447658434494</v>
       </c>
       <c r="K3">
-        <v>1.046062401654824</v>
+        <v>1.042013552682385</v>
       </c>
       <c r="L3">
-        <v>1.030780133507633</v>
+        <v>1.026775019816916</v>
       </c>
       <c r="M3">
-        <v>1.049167789251094</v>
+        <v>1.045888575756586</v>
       </c>
       <c r="N3">
-        <v>1.038781948939996</v>
+        <v>1.027790306918284</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047485364346466</v>
+        <v>1.044890106995431</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04363772540869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040783320223354</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022771328846339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020866621919366</v>
+        <v>1.015236486846057</v>
       </c>
       <c r="D4">
-        <v>1.038297131972503</v>
+        <v>1.03369853150774</v>
       </c>
       <c r="E4">
-        <v>1.02338794793482</v>
+        <v>1.018751068192969</v>
       </c>
       <c r="F4">
-        <v>1.041411504978489</v>
+        <v>1.037684771550741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055142856074557</v>
+        <v>1.052803625410355</v>
       </c>
       <c r="J4">
-        <v>1.039751210497875</v>
+        <v>1.0342583119286</v>
       </c>
       <c r="K4">
-        <v>1.047954312995143</v>
+        <v>1.04340657012783</v>
       </c>
       <c r="L4">
-        <v>1.033212063465828</v>
+        <v>1.028628331598058</v>
       </c>
       <c r="M4">
-        <v>1.051034556220696</v>
+        <v>1.047348692920308</v>
       </c>
       <c r="N4">
-        <v>1.041227776477913</v>
+        <v>1.028805488116797</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048962769628673</v>
+        <v>1.046045683939861</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044976347823432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041769271359717</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023100760638793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022363242805068</v>
+        <v>1.016467763342151</v>
       </c>
       <c r="D5">
-        <v>1.039312638128937</v>
+        <v>1.03450532656244</v>
       </c>
       <c r="E5">
-        <v>1.024636548407237</v>
+        <v>1.019757094102682</v>
       </c>
       <c r="F5">
-        <v>1.042415117899474</v>
+        <v>1.03851835598046</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055519963284081</v>
+        <v>1.053073848924554</v>
       </c>
       <c r="J5">
-        <v>1.040771466233007</v>
+        <v>1.035015286266146</v>
       </c>
       <c r="K5">
-        <v>1.048745360815048</v>
+        <v>1.043989781602831</v>
       </c>
       <c r="L5">
-        <v>1.034229072885797</v>
+        <v>1.029404002929419</v>
       </c>
       <c r="M5">
-        <v>1.051814764332053</v>
+        <v>1.047959585615626</v>
       </c>
       <c r="N5">
-        <v>1.042249481093213</v>
+        <v>1.029229899398429</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049580244641686</v>
+        <v>1.046529160707697</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045542797105976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04218949826704</v>
+      </c>
+      <c r="S5">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T5">
+        <v>1.023239444133689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022623054469289</v>
+        <v>1.016680203467046</v>
       </c>
       <c r="D6">
-        <v>1.039491546615287</v>
+        <v>1.034647179585553</v>
       </c>
       <c r="E6">
-        <v>1.02485579720892</v>
+        <v>1.019932468924617</v>
       </c>
       <c r="F6">
-        <v>1.042590047672897</v>
+        <v>1.038663054934458</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055587439089952</v>
+        <v>1.053122347773573</v>
       </c>
       <c r="J6">
-        <v>1.040951386585473</v>
+        <v>1.035148212175211</v>
       </c>
       <c r="K6">
-        <v>1.048886549680245</v>
+        <v>1.044094071521364</v>
       </c>
       <c r="L6">
-        <v>1.034409406346706</v>
+        <v>1.029540690277138</v>
       </c>
       <c r="M6">
-        <v>1.051952171481294</v>
+        <v>1.04806689010545</v>
       </c>
       <c r="N6">
-        <v>1.042429656953217</v>
+        <v>1.029304426555244</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049688991831886</v>
+        <v>1.04661408430932</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045651306940209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042272813909596</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023265904397645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020912936936567</v>
+        <v>1.015312987306847</v>
       </c>
       <c r="D7">
-        <v>1.03833550784274</v>
+        <v>1.033758780165492</v>
       </c>
       <c r="E7">
-        <v>1.023433245130841</v>
+        <v>1.01882734840284</v>
       </c>
       <c r="F7">
-        <v>1.041444137969934</v>
+        <v>1.037736005177379</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055160522392841</v>
+        <v>1.052832406623739</v>
       </c>
       <c r="J7">
-        <v>1.039790504228057</v>
+        <v>1.034326983447683</v>
       </c>
       <c r="K7">
-        <v>1.04798941303026</v>
+        <v>1.043463278276691</v>
       </c>
       <c r="L7">
-        <v>1.033253935026935</v>
+        <v>1.028700805640003</v>
       </c>
       <c r="M7">
-        <v>1.051063990497577</v>
+        <v>1.047396506289209</v>
       </c>
       <c r="N7">
-        <v>1.041267126009699</v>
+        <v>1.028896081124155</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048986064615607</v>
+        <v>1.046083524726357</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045021137091558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041831396800399</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023125929156181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,105 +811,123 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013571043412004</v>
+        <v>1.00937556979148</v>
       </c>
       <c r="D8">
-        <v>1.033370616783975</v>
+        <v>1.029891420878606</v>
       </c>
       <c r="E8">
-        <v>1.017329518710894</v>
+        <v>1.01401585067157</v>
       </c>
       <c r="F8">
-        <v>1.036539031409359</v>
+        <v>1.033727881437929</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053291619634263</v>
+        <v>1.051524269412676</v>
       </c>
       <c r="J8">
-        <v>1.034792771269065</v>
+        <v>1.030715258767726</v>
       </c>
       <c r="K8">
-        <v>1.044116766140191</v>
+        <v>1.040681162214475</v>
       </c>
       <c r="L8">
-        <v>1.02827975767543</v>
+        <v>1.025009257134465</v>
       </c>
       <c r="M8">
-        <v>1.047245799699833</v>
+        <v>1.044469575210367</v>
       </c>
       <c r="N8">
-        <v>1.036262295696658</v>
+        <v>1.026977146464554</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045964251470389</v>
+        <v>1.04376706912779</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042287450025585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039869258550757</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022483278543527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.999885069500635</v>
+        <v>0.9982527859784762</v>
       </c>
       <c r="D9">
-        <v>1.024128819302119</v>
+        <v>1.022643301747117</v>
       </c>
       <c r="E9">
-        <v>1.005981864046718</v>
+        <v>1.005008626442002</v>
       </c>
       <c r="F9">
-        <v>1.02746123779916</v>
+        <v>1.026282126830453</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049685237640092</v>
+        <v>1.048932445287088</v>
       </c>
       <c r="J9">
-        <v>1.025441886912577</v>
+        <v>1.023867394101692</v>
       </c>
       <c r="K9">
-        <v>1.036842187864974</v>
+        <v>1.035379387059018</v>
       </c>
       <c r="L9">
-        <v>1.018978629525162</v>
+        <v>1.018020961509141</v>
       </c>
       <c r="M9">
-        <v>1.040123950990607</v>
+        <v>1.038962715504695</v>
       </c>
       <c r="N9">
-        <v>1.026898132011821</v>
+        <v>1.02315731645278</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040327806277763</v>
+        <v>1.0394087654427</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037140678092349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036117116234156</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021205535662135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9903814121325186</v>
+        <v>0.990780471173116</v>
       </c>
       <c r="D10">
-        <v>1.017765259034161</v>
+        <v>1.017838981525983</v>
       </c>
       <c r="E10">
-        <v>0.9981739089514687</v>
+        <v>0.9990680892277249</v>
       </c>
       <c r="F10">
-        <v>1.021288785740907</v>
+        <v>1.021394013498347</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047136950541363</v>
+        <v>1.047174251002625</v>
       </c>
       <c r="J10">
-        <v>1.018981919150789</v>
+        <v>1.019364714703234</v>
       </c>
       <c r="K10">
-        <v>1.031820997287588</v>
+        <v>1.031893448235609</v>
       </c>
       <c r="L10">
-        <v>1.012576212496402</v>
+        <v>1.013454190021587</v>
       </c>
       <c r="M10">
-        <v>1.035284016464284</v>
+        <v>1.035387445498964</v>
       </c>
       <c r="N10">
-        <v>1.020428990354842</v>
+        <v>1.020867071957692</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036548870554304</v>
+        <v>1.036630723021321</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033607186539204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033670852662579</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020410955144597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,105 +997,123 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9873653006824807</v>
+        <v>0.9885080025087617</v>
       </c>
       <c r="D11">
-        <v>1.015993593044463</v>
+        <v>1.016630920635244</v>
       </c>
       <c r="E11">
-        <v>0.996016589545054</v>
+        <v>0.997544156932044</v>
       </c>
       <c r="F11">
-        <v>1.019973886657483</v>
+        <v>1.020548788352915</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046521233640992</v>
+        <v>1.046843490377205</v>
       </c>
       <c r="J11">
-        <v>1.017273310670864</v>
+        <v>1.018366801954947</v>
       </c>
       <c r="K11">
-        <v>1.03062006762309</v>
+        <v>1.031245872572603</v>
       </c>
       <c r="L11">
-        <v>1.011014020171002</v>
+        <v>1.012512535941441</v>
       </c>
       <c r="M11">
-        <v>1.034528705384867</v>
+        <v>1.035093317316495</v>
       </c>
       <c r="N11">
-        <v>1.018717955454896</v>
+        <v>1.02075440484717</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036388388952659</v>
+        <v>1.036834990278237</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032791003184521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033249122009865</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020478808948095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9866513912327394</v>
+        <v>0.9878976018866442</v>
       </c>
       <c r="D12">
-        <v>1.015688050846964</v>
+        <v>1.01640173878406</v>
       </c>
       <c r="E12">
-        <v>0.9956676595180817</v>
+        <v>0.9972322547989012</v>
       </c>
       <c r="F12">
-        <v>1.019976078233304</v>
+        <v>1.020616754456198</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046469115898018</v>
+        <v>1.046829903752673</v>
       </c>
       <c r="J12">
-        <v>1.01703163278368</v>
+        <v>1.01822313776334</v>
       </c>
       <c r="K12">
-        <v>1.030520740485312</v>
+        <v>1.031221312038441</v>
       </c>
       <c r="L12">
-        <v>1.010878333686787</v>
+        <v>1.012412673235537</v>
       </c>
       <c r="M12">
-        <v>1.034730320488853</v>
+        <v>1.035359349487827</v>
       </c>
       <c r="N12">
-        <v>1.018475934357392</v>
+        <v>1.020867896836106</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036874899329112</v>
+        <v>1.037372284772749</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032720775301897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033231757208906</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020602660251797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9877046401112838</v>
+        <v>0.988524458629029</v>
       </c>
       <c r="D13">
-        <v>1.016528229265053</v>
+        <v>1.016918169176496</v>
       </c>
       <c r="E13">
-        <v>0.9967271091653114</v>
+        <v>0.9978306238359637</v>
       </c>
       <c r="F13">
-        <v>1.021032585796493</v>
+        <v>1.02140683152533</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04687199478886</v>
+        <v>1.047069134295278</v>
       </c>
       <c r="J13">
-        <v>1.017944071890869</v>
+        <v>1.018728121504664</v>
       </c>
       <c r="K13">
-        <v>1.031302485699002</v>
+        <v>1.031685295548028</v>
       </c>
       <c r="L13">
-        <v>1.011873036689407</v>
+        <v>1.012955329968428</v>
       </c>
       <c r="M13">
-        <v>1.035724911505286</v>
+        <v>1.036092392270298</v>
       </c>
       <c r="N13">
-        <v>1.019389669232771</v>
+        <v>1.021107983159286</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037938349789716</v>
+        <v>1.038228850803754</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033270998607142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033557062989147</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020788761112319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9892332862086423</v>
+        <v>0.989534795075075</v>
       </c>
       <c r="D14">
-        <v>1.017628735235488</v>
+        <v>1.01762719909436</v>
       </c>
       <c r="E14">
-        <v>0.9980971308482264</v>
+        <v>0.9986760562795598</v>
       </c>
       <c r="F14">
-        <v>1.022242737374391</v>
+        <v>1.022293537111923</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047356524850794</v>
+        <v>1.047355748088945</v>
       </c>
       <c r="J14">
-        <v>1.019097240530702</v>
+        <v>1.019385800499864</v>
       </c>
       <c r="K14">
-        <v>1.032242228089438</v>
+        <v>1.032240719664038</v>
       </c>
       <c r="L14">
-        <v>1.013072038037651</v>
+        <v>1.013639985206079</v>
       </c>
       <c r="M14">
-        <v>1.036773470355911</v>
+        <v>1.0368233643125</v>
       </c>
       <c r="N14">
-        <v>1.020544475504342</v>
+        <v>1.021340484395799</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038940675667623</v>
+        <v>1.038980112532231</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033936857914522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033951325210006</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020954370836041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9900060203307245</v>
+        <v>0.9900701701854991</v>
       </c>
       <c r="D15">
-        <v>1.01816268730744</v>
+        <v>1.017982435281371</v>
       </c>
       <c r="E15">
-        <v>0.9987546955878365</v>
+        <v>0.9991031726308738</v>
       </c>
       <c r="F15">
-        <v>1.022790063310789</v>
+        <v>1.022692837454716</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047582026143138</v>
+        <v>1.047490870286635</v>
       </c>
       <c r="J15">
-        <v>1.019646907618616</v>
+        <v>1.019708328222165</v>
       </c>
       <c r="K15">
-        <v>1.032679950338645</v>
+        <v>1.03250292462416</v>
       </c>
       <c r="L15">
-        <v>1.013628076349485</v>
+        <v>1.013969999856078</v>
       </c>
       <c r="M15">
-        <v>1.037225006381059</v>
+        <v>1.037129500213415</v>
       </c>
       <c r="N15">
-        <v>1.021094923182569</v>
+        <v>1.021440725916846</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039335125168598</v>
+        <v>1.039259637768764</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034252222681083</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034143160486728</v>
+      </c>
+      <c r="S15">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T15">
+        <v>1.021019269257429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9938434869481846</v>
+        <v>0.9928704450122794</v>
       </c>
       <c r="D16">
-        <v>1.020710150081004</v>
+        <v>1.019748300040272</v>
       </c>
       <c r="E16">
-        <v>1.001856768023551</v>
+        <v>1.00124877628099</v>
       </c>
       <c r="F16">
-        <v>1.025240255366072</v>
+        <v>1.02449467173325</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048608229359939</v>
+        <v>1.048121506207943</v>
       </c>
       <c r="J16">
-        <v>1.02222594012645</v>
+        <v>1.021292114214608</v>
       </c>
       <c r="K16">
-        <v>1.034679670054481</v>
+        <v>1.033734259678314</v>
       </c>
       <c r="L16">
-        <v>1.01615599924993</v>
+        <v>1.015558908666448</v>
       </c>
       <c r="M16">
-        <v>1.039132883146667</v>
+        <v>1.038399894430491</v>
       </c>
       <c r="N16">
-        <v>1.023677618212384</v>
+        <v>1.021922238557613</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040804387751652</v>
+        <v>1.040225021814668</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03566925755907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035017219106789</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021257673599434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9959900530216927</v>
+        <v>0.9945223749824653</v>
       </c>
       <c r="D17">
-        <v>1.022091372815122</v>
+        <v>1.020754083076832</v>
       </c>
       <c r="E17">
-        <v>1.003525982828986</v>
+        <v>1.002484542028663</v>
       </c>
       <c r="F17">
-        <v>1.026483620555355</v>
+        <v>1.025426828886767</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049139613312279</v>
+        <v>1.048462645836961</v>
       </c>
       <c r="J17">
-        <v>1.023603204532688</v>
+        <v>1.022192689929868</v>
       </c>
       <c r="K17">
-        <v>1.03572283871966</v>
+        <v>1.034407747145102</v>
       </c>
       <c r="L17">
-        <v>1.017472469958303</v>
+        <v>1.016449148013687</v>
       </c>
       <c r="M17">
-        <v>1.040042701164875</v>
+        <v>1.039003252817756</v>
       </c>
       <c r="N17">
-        <v>1.025056838492053</v>
+        <v>1.022238464349568</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04139453209274</v>
+        <v>1.040572853528154</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036409397468998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035496231301132</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021358266989407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9968403114782016</v>
+        <v>0.9952589356062048</v>
       </c>
       <c r="D18">
-        <v>1.022549686139388</v>
+        <v>1.021123366312112</v>
       </c>
       <c r="E18">
-        <v>1.004064808202561</v>
+        <v>1.00296044923251</v>
       </c>
       <c r="F18">
-        <v>1.026733594412697</v>
+        <v>1.025602231603444</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049272708294924</v>
+        <v>1.048550516477049</v>
       </c>
       <c r="J18">
-        <v>1.024023221790843</v>
+        <v>1.022502258971844</v>
       </c>
       <c r="K18">
-        <v>1.035990212729288</v>
+        <v>1.034587179221954</v>
       </c>
       <c r="L18">
-        <v>1.017813744708026</v>
+        <v>1.01672827638613</v>
       </c>
       <c r="M18">
-        <v>1.040106292867199</v>
+        <v>1.038993201257554</v>
       </c>
       <c r="N18">
-        <v>1.025477452222891</v>
+        <v>1.022329392791511</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041207201410294</v>
+        <v>1.040327124764252</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036586805788303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035610316498408</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021313738882403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,105 +1493,123 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9965323585826038</v>
+        <v>0.9951468722473802</v>
       </c>
       <c r="D19">
-        <v>1.022187471420295</v>
+        <v>1.020907455352142</v>
       </c>
       <c r="E19">
-        <v>1.003603860321173</v>
+        <v>1.002734171306814</v>
       </c>
       <c r="F19">
-        <v>1.026087296443769</v>
+        <v>1.025075206386506</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049055354419615</v>
+        <v>1.04840720426492</v>
       </c>
       <c r="J19">
-        <v>1.023591614858275</v>
+        <v>1.022258779431687</v>
       </c>
       <c r="K19">
-        <v>1.035571352843106</v>
+        <v>1.034312138131539</v>
       </c>
       <c r="L19">
-        <v>1.017296463914493</v>
+        <v>1.016441584688909</v>
       </c>
       <c r="M19">
-        <v>1.039408212781331</v>
+        <v>1.038412404475402</v>
       </c>
       <c r="N19">
-        <v>1.025045232358973</v>
+        <v>1.022169616472446</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040329783055755</v>
+        <v>1.039542180214265</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036297053677748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035422880641651</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021138589346459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9929369636130788</v>
+        <v>0.9926372895302609</v>
       </c>
       <c r="D20">
-        <v>1.019494042918224</v>
+        <v>1.019037745389421</v>
       </c>
       <c r="E20">
-        <v>1.00029421220396</v>
+        <v>1.000523529102887</v>
       </c>
       <c r="F20">
-        <v>1.022953139203309</v>
+        <v>1.022619323372257</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047842971668384</v>
+        <v>1.047612011739214</v>
       </c>
       <c r="J20">
-        <v>1.02074289500824</v>
+        <v>1.020455011665434</v>
       </c>
       <c r="K20">
-        <v>1.033202560452902</v>
+        <v>1.032753900193917</v>
       </c>
       <c r="L20">
-        <v>1.014331890216961</v>
+        <v>1.014557179125023</v>
       </c>
       <c r="M20">
-        <v>1.03660404549296</v>
+        <v>1.036275767486771</v>
       </c>
       <c r="N20">
-        <v>1.022192466999998</v>
+        <v>1.021281968061809</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.0375829635174</v>
+        <v>1.037323165300506</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034626167853383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034325481064478</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020597951264519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9854980399468641</v>
+        <v>0.9875059358453512</v>
       </c>
       <c r="D21">
-        <v>1.01447320682967</v>
+        <v>1.015766569417587</v>
       </c>
       <c r="E21">
-        <v>0.9941355596248229</v>
+        <v>0.9965883165013436</v>
       </c>
       <c r="F21">
-        <v>1.018017297104122</v>
+        <v>1.019135270111974</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045782298189559</v>
+        <v>1.046436196824963</v>
       </c>
       <c r="J21">
-        <v>1.015614849007575</v>
+        <v>1.017535478493865</v>
       </c>
       <c r="K21">
-        <v>1.029185471626582</v>
+        <v>1.030455271752603</v>
       </c>
       <c r="L21">
-        <v>1.009228893950521</v>
+        <v>1.01163461383162</v>
       </c>
       <c r="M21">
-        <v>1.032665181329595</v>
+        <v>1.033762966434569</v>
       </c>
       <c r="N21">
-        <v>1.017057138585817</v>
+        <v>1.020460402745547</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034424664414045</v>
+        <v>1.035293494590326</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031789190598368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032703844751822</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020159979587231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.980726298285611</v>
+        <v>0.9842070520053542</v>
       </c>
       <c r="D22">
-        <v>1.011267054409926</v>
+        <v>1.013679153258934</v>
       </c>
       <c r="E22">
-        <v>0.9902023304657439</v>
+        <v>0.9940767144014299</v>
       </c>
       <c r="F22">
-        <v>1.014903121400045</v>
+        <v>1.016949821572644</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044453526941303</v>
+        <v>1.045672161758138</v>
       </c>
       <c r="J22">
-        <v>1.012336377401468</v>
+        <v>1.01565641137158</v>
       </c>
       <c r="K22">
-        <v>1.026618565058194</v>
+        <v>1.02898440834879</v>
       </c>
       <c r="L22">
-        <v>1.005970412242494</v>
+        <v>1.009766433124038</v>
       </c>
       <c r="M22">
-        <v>1.030185015092806</v>
+        <v>1.032192814956214</v>
       </c>
       <c r="N22">
-        <v>1.013774011173984</v>
+        <v>1.019882832660266</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032461759659135</v>
+        <v>1.034050814815337</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029960710621304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031649040235225</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019884990457152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9832404100387543</v>
+        <v>0.9858756797224136</v>
       </c>
       <c r="D23">
-        <v>1.012949041699348</v>
+        <v>1.01471879602936</v>
       </c>
       <c r="E23">
-        <v>0.9922654149258009</v>
+        <v>0.9953175407793382</v>
       </c>
       <c r="F23">
-        <v>1.016541071017937</v>
+        <v>1.018053939686655</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045149783123332</v>
+        <v>1.046044232228273</v>
       </c>
       <c r="J23">
-        <v>1.014055997725402</v>
+        <v>1.016573388977737</v>
       </c>
       <c r="K23">
-        <v>1.027961293042955</v>
+        <v>1.029698009811192</v>
       </c>
       <c r="L23">
-        <v>1.007675263778284</v>
+        <v>1.010667355247343</v>
       </c>
       <c r="M23">
-        <v>1.031486423536751</v>
+        <v>1.032971300326621</v>
       </c>
       <c r="N23">
-        <v>1.015496073556021</v>
+        <v>1.020074509586123</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03349174808536</v>
+        <v>1.03466693909875</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030900398430881</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032142974896136</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019996059044068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9928974599706912</v>
+        <v>0.992629067553407</v>
       </c>
       <c r="D24">
-        <v>1.01943443005015</v>
+        <v>1.019000995603291</v>
       </c>
       <c r="E24">
-        <v>1.000221233494047</v>
+        <v>1.000489306014146</v>
       </c>
       <c r="F24">
-        <v>1.02286256805804</v>
+        <v>1.02254764029214</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047804597853166</v>
+        <v>1.047585207126576</v>
       </c>
       <c r="J24">
-        <v>1.020671684516427</v>
+        <v>1.020413837910751</v>
       </c>
       <c r="K24">
-        <v>1.033128639689251</v>
+        <v>1.03270245142281</v>
       </c>
       <c r="L24">
-        <v>1.014244465137889</v>
+        <v>1.014507834335911</v>
       </c>
       <c r="M24">
-        <v>1.036499744431307</v>
+        <v>1.036190035521198</v>
       </c>
       <c r="N24">
-        <v>1.022121155381119</v>
+        <v>1.02125090318203</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037459483366053</v>
+        <v>1.037214368447216</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034546451191203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034258975688971</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020562193455499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003558663137051</v>
+        <v>1.001163966067576</v>
       </c>
       <c r="D25">
-        <v>1.026617122502811</v>
+        <v>1.024544076095185</v>
       </c>
       <c r="E25">
-        <v>1.009034926035641</v>
+        <v>1.007355851401403</v>
       </c>
       <c r="F25">
-        <v>1.029891764812272</v>
+        <v>1.028229784108178</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050675173492075</v>
+        <v>1.049623998651234</v>
       </c>
       <c r="J25">
-        <v>1.027966854736795</v>
+        <v>1.025652221506661</v>
       </c>
       <c r="K25">
-        <v>1.038815830084779</v>
+        <v>1.036772960692805</v>
       </c>
       <c r="L25">
-        <v>1.021494586970122</v>
+        <v>1.019841040447837</v>
       </c>
       <c r="M25">
-        <v>1.042043117499717</v>
+        <v>1.040405123074146</v>
       </c>
       <c r="N25">
-        <v>1.029426685579968</v>
+        <v>1.024091731892774</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041846696657926</v>
+        <v>1.040550335148657</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038564714885514</v>
+        <v>1.037133840178695</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021542008840534</v>
       </c>
     </row>
   </sheetData>
